--- a/nickwork/plotdata.xlsx
+++ b/nickwork/plotdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nickrad/Desktop/workspace/practice/project2/project-baseball/nickwork/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52D3A879-3536-8C4E-AA1E-5DCF68AF8478}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CBD236B-8DE8-1446-A6D7-4C7E5BAF5CF6}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="460" windowWidth="21100" windowHeight="13420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
